--- a/WebApplication/src/com/Action_Keywords/OrangeHRMLogINData.xlsx
+++ b/WebApplication/src/com/Action_Keywords/OrangeHRMLogINData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="22710" windowHeight="8400"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="18840" windowHeight="8400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:J15"/>
+  <oleSize ref="A1:H15"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
   <si>
     <t>Testcase_ID</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Login button</t>
   </si>
 </sst>
 </file>
@@ -467,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="170" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -511,7 +514,7 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -573,7 +576,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -592,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -679,7 +682,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -713,7 +716,7 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -728,7 +731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="170" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
